--- a/Calc/lifetime_calc.xlsx
+++ b/Calc/lifetime_calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliff\OneDrive\Documents\GenAtomic\Optimize\Calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cd0e7a053322a97/Documents/GenAtomic/Optimize/Calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E44623-432B-46E8-8373-0B8A46B824CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B6C068-AFE1-49D7-8B88-0B5A05F438BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="16637" windowHeight="9437" xr2:uid="{738DFCFF-3A0D-4B61-9084-C2C50E31EE06}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Cap cost 2020" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Lifetime_Battery">CSV!$G$5</definedName>
     <definedName name="Lifetime_Coal">CSV!$F$5</definedName>
     <definedName name="Lifetime_Gas">CSV!$E$5</definedName>
     <definedName name="Lifetime_Nuclear">CSV!$D$5</definedName>
     <definedName name="Lifetime_Solar">CSV!$B$5</definedName>
-    <definedName name="Lifetime_Storage">CSV!$G$5</definedName>
     <definedName name="Lifetime_Wind">CSV!$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -62,9 +62,6 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>Storage</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Battery</t>
   </si>
 </sst>
 </file>
@@ -564,9 +564,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -604,7 +604,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -710,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,7 +852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -863,7 +863,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
   <cols>
@@ -882,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -894,12 +896,12 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.85">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="str">
         <f ca="1">OFFSET('Cap cost 2020'!$B$3,B$3,0)</f>
@@ -931,7 +933,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3">
         <v>24</v>
@@ -978,7 +980,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Lifetime_Storage</v>
+        <v>Lifetime_Battery</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -986,7 +988,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7">
         <f ca="1">OFFSET('Cap cost 2020'!$L$3,B$3,0)</f>
@@ -1050,7 +1052,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1062,50 +1064,50 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.65" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="73.099999999999994" x14ac:dyDescent="0.85">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="73" x14ac:dyDescent="0.85">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -1114,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
       <c r="D4">
         <v>650</v>
@@ -1156,10 +1158,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5">
         <v>650</v>
@@ -1198,10 +1200,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6">
         <v>650</v>
@@ -1240,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -1282,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
       </c>
       <c r="D8">
         <v>105</v>
@@ -1324,10 +1326,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>237</v>
@@ -1366,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="D10">
         <v>1083</v>
@@ -1408,10 +1410,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11">
         <v>418</v>
@@ -1450,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
       <c r="D12">
         <v>377</v>
@@ -1492,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1534,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
       <c r="D14">
         <v>2156</v>
@@ -1576,10 +1578,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
       <c r="D15">
         <v>600</v>
@@ -1618,10 +1620,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -1642,7 +1644,7 @@
         <v>0.08</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>206</v>
@@ -1660,10 +1662,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
       <c r="D17">
         <v>30</v>
@@ -1681,7 +1683,7 @@
         <v>1.9</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>-0.08</v>
@@ -1705,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>2521</v>
@@ -1744,10 +1746,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
       </c>
       <c r="D19">
         <v>35.6</v>
@@ -1786,16 +1788,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>5316</v>
@@ -1828,19 +1830,19 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>24.8</v>
@@ -1870,19 +1872,19 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>12.9</v>
@@ -1912,16 +1914,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
       </c>
       <c r="D23">
         <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>1265</v>
@@ -1954,16 +1956,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
       <c r="D24">
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>1677</v>
@@ -1996,16 +1998,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
       </c>
       <c r="D25">
         <v>400</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>4375</v>
@@ -2038,16 +2040,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
       </c>
       <c r="D26">
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>7221</v>
@@ -2080,16 +2082,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
       </c>
       <c r="D27">
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>1313</v>
@@ -2122,16 +2124,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
       <c r="D28">
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>1755</v>
